--- a/Docs/LAB02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/LAB02/Lab02_BBT_TCs_Form.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA80426C-2025-9E47-A7BB-2C71E31E2AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ADABC5-5CC0-004A-B532-241863F14B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="-20660" windowWidth="34240" windowHeight="19220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -114,7 +114,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -385,9 +385,6 @@
     <t>partDynamicValue &lt; 0</t>
   </si>
   <si>
-    <t>1, 3, 5, 7, 9, 11, 13</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -410,15 +407,6 @@
   </si>
   <si>
     <t>name is non-empty String</t>
-  </si>
-  <si>
-    <t>name not non-empty String</t>
-  </si>
-  <si>
-    <t>name is String, length in [1,255]</t>
-  </si>
-  <si>
-    <t>price is Double, price &gt; 0</t>
   </si>
   <si>
     <t>07. price = 1</t>
@@ -508,49 +496,10 @@
 In stock must be between min and max!</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 3, 5, 7, 9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 11,14</t>
-    </r>
-  </si>
-  <si>
     <t>"festar"</t>
   </si>
   <si>
     <t>In stock must be between min and max!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-In stock cannot be negative!
-Price cannot be negative!
-Min cannot be negative!
-Max cannot be negative!
-Min cannot be greater than max!
-In stock must be between min and max!</t>
   </si>
   <si>
     <t xml:space="preserve">Price cannot be negative!
@@ -597,21 +546,6 @@
   </si>
   <si>
     <t>02.  length = 2</t>
-  </si>
-  <si>
-    <r>
-      <t>1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2,4,6,7,9,11,13,15</t>
-    </r>
   </si>
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
@@ -684,12 +618,63 @@
   <si>
     <t>In cadrul unui depozit se doreste adaugarea unor piese. Programul va permite următoarele operaţii:</t>
   </si>
+  <si>
+    <t>name is String</t>
+  </si>
+  <si>
+    <t>1, 3, 5, 8,10,12,14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="30"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 3, 5, 8,10,12,14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1,4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5,8,10,11,12,14</t>
+    </r>
+  </si>
+  <si>
+    <t>name length in [1,255]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Price cannot be negative!</t>
+  </si>
+  <si>
+    <t>exception not thrown</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +874,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1431,7 +1435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1484,9 +1488,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1595,6 +1596,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1610,9 +1653,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1637,71 +1677,59 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1715,38 +1743,68 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1778,69 +1836,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2150,8 +2146,8 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A5" zoomScale="179" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2165,24 +2161,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="69"/>
-      <c r="H1" s="35" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
+      <c r="H1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H3" s="2"/>
@@ -2198,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J4" s="2">
         <v>331</v>
@@ -2209,19 +2205,19 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J5" s="2">
         <v>331</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
+      <c r="B6" s="22"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J6" s="2">
         <v>331</v>
@@ -2229,7 +2225,7 @@
     </row>
     <row r="7" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2262,7 +2258,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2270,7 +2266,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2278,7 +2274,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2290,7 +2286,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2300,8 +2296,8 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C20" s="31" t="s">
-        <v>135</v>
+      <c r="C20" s="30" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2344,25 +2340,25 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C26" s="34"/>
+      <c r="C26" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2382,8 +2378,8 @@
   </sheetPr>
   <dimension ref="B1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2405,43 +2401,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="3" spans="2:17" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="G5" s="82" t="s">
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="G5" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
@@ -2456,80 +2452,80 @@
       <c r="E6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="90" t="s">
+      <c r="H6" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="102" t="s">
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="102"/>
+      <c r="Q6" s="78"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="39">
+      <c r="B7" s="38">
         <v>1</v>
       </c>
-      <c r="C7" s="77" t="s">
-        <v>84</v>
+      <c r="C7" s="89" t="s">
+        <v>83</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="91"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="99"/>
       <c r="I7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>66</v>
       </c>
       <c r="L7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" s="89"/>
-      <c r="P7" s="88" t="s">
+      <c r="O7" s="75"/>
+      <c r="P7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="89"/>
+      <c r="Q7" s="75"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>2</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="G8" s="12">
         <v>1</v>
       </c>
-      <c r="H8" s="41" t="s">
-        <v>76</v>
+      <c r="H8" s="40" t="s">
+        <v>133</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="2">
         <v>100</v>
@@ -2543,22 +2539,22 @@
       <c r="M8" s="2">
         <v>30</v>
       </c>
-      <c r="N8" s="74">
+      <c r="N8" s="87">
         <v>5</v>
       </c>
-      <c r="O8" s="75" t="s">
+      <c r="O8" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="75"/>
+      <c r="P8" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="39">
+      <c r="B9" s="38">
         <v>3</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="89" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2568,49 +2564,49 @@
       <c r="G9" s="12">
         <v>2</v>
       </c>
-      <c r="H9" s="41" t="s">
-        <v>129</v>
+      <c r="H9" s="40" t="s">
+        <v>135</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J9" s="9">
         <v>-15</v>
       </c>
-      <c r="K9" s="9">
-        <v>-15</v>
-      </c>
-      <c r="L9" s="9">
-        <v>-5</v>
-      </c>
-      <c r="M9" s="9">
-        <v>-30</v>
-      </c>
-      <c r="N9" s="99">
-        <v>-15</v>
-      </c>
-      <c r="O9" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q9" s="75"/>
+      <c r="K9" s="2">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>30</v>
+      </c>
+      <c r="N9" s="87">
+        <v>5</v>
+      </c>
+      <c r="O9" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q9" s="88"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="40">
+      <c r="B10" s="39">
         <v>4</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="12">
         <v>3</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>110</v>
+      <c r="H10" s="152" t="s">
+        <v>134</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>30</v>
@@ -2627,211 +2623,211 @@
       <c r="M10" s="8">
         <v>25</v>
       </c>
-      <c r="N10" s="85">
+      <c r="N10" s="76">
         <v>2</v>
       </c>
-      <c r="O10" s="86"/>
-      <c r="P10" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q10" s="86"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="77"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="39">
+      <c r="B11" s="38">
         <v>5</v>
       </c>
-      <c r="C11" s="71" t="s">
-        <v>104</v>
+      <c r="C11" s="84" t="s">
+        <v>100</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="40">
+      <c r="B12" s="39">
         <v>6</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
+        <v>101</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="57">
+      <c r="B13" s="56">
         <v>7</v>
       </c>
-      <c r="C13" s="73"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
+      <c r="E13" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="39">
+      <c r="B14" s="38">
         <v>8</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="79" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="40">
+      <c r="B15" s="39">
         <v>9</v>
       </c>
-      <c r="C15" s="93"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="39">
+      <c r="B16" s="38">
         <v>10</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="79" t="s">
         <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="40">
+      <c r="B17" s="39">
         <v>11</v>
       </c>
-      <c r="C17" s="93"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="39">
+      <c r="B18" s="38">
         <v>12</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="79" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="98"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="40">
+      <c r="B19" s="39">
         <v>13</v>
       </c>
-      <c r="C19" s="93"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G19" s="16"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="98"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="39">
+      <c r="B20" s="38">
         <v>14</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="79" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2840,10 +2836,10 @@
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="40">
+      <c r="B21" s="39">
         <v>15</v>
       </c>
-      <c r="C21" s="93"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>75</v>
@@ -2853,36 +2849,11 @@
       <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N11:O11"/>
@@ -2899,6 +2870,31 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2912,8 +2908,8 @@
   </sheetPr>
   <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="D3" zoomScale="140" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2937,44 +2933,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="3" spans="2:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="3"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="117" t="s">
+      <c r="H5" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="119"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="106"/>
     </row>
     <row r="6" spans="2:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -2987,78 +2983,78 @@
         <v>32</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="120" t="s">
+      <c r="J6" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="114" t="s">
+      <c r="K6" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="114" t="s">
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="116"/>
+      <c r="R6" s="103"/>
     </row>
     <row r="7" spans="2:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="92">
+      <c r="B7" s="79">
         <v>1</v>
       </c>
-      <c r="C7" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="121"/>
+      <c r="C7" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="96"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="108"/>
       <c r="K7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="M7" s="21" t="s">
         <v>66</v>
       </c>
       <c r="N7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q7" s="88" t="s">
+      <c r="Q7" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="89"/>
+      <c r="R7" s="75"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="106"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="59" t="s">
-        <v>128</v>
+      <c r="B8" s="110"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="58" t="s">
+        <v>122</v>
       </c>
       <c r="H8" s="12">
         <v>1</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="37">
         <v>7</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>100</v>
+      <c r="J8" s="35" t="s">
+        <v>96</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>39</v>
@@ -3078,16 +3074,16 @@
       <c r="P8" s="20">
         <v>100</v>
       </c>
-      <c r="Q8" s="107" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" s="108"/>
+      <c r="Q8" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="116"/>
     </row>
     <row r="9" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="106"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="59" t="s">
-        <v>123</v>
+      <c r="B9" s="110"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="58" t="s">
+        <v>117</v>
       </c>
       <c r="H9" s="10">
         <v>2</v>
@@ -3095,11 +3091,11 @@
       <c r="I9" s="11">
         <v>15</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>100</v>
+      <c r="J9" s="35" t="s">
+        <v>96</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L9" s="20">
         <v>50</v>
@@ -3116,25 +3112,25 @@
       <c r="P9" s="20">
         <v>2</v>
       </c>
-      <c r="Q9" s="109" t="s">
-        <v>112</v>
-      </c>
-      <c r="R9" s="110"/>
+      <c r="Q9" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="118"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="59" t="s">
-        <v>124</v>
+      <c r="B10" s="110"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="58" t="s">
+        <v>118</v>
       </c>
       <c r="H10" s="12">
         <v>3</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="37">
         <v>3</v>
       </c>
-      <c r="J10" s="36" t="s">
-        <v>100</v>
+      <c r="J10" s="35" t="s">
+        <v>96</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>39</v>
@@ -3154,16 +3150,16 @@
       <c r="P10" s="20">
         <v>45</v>
       </c>
-      <c r="Q10" s="107" t="s">
-        <v>82</v>
-      </c>
-      <c r="R10" s="108"/>
+      <c r="Q10" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="116"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="106"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="59" t="s">
-        <v>125</v>
+      <c r="B11" s="110"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="58" t="s">
+        <v>119</v>
       </c>
       <c r="H11" s="10">
         <v>4</v>
@@ -3171,10 +3167,10 @@
       <c r="I11" s="11">
         <v>16</v>
       </c>
-      <c r="J11" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="52" t="s">
+      <c r="J11" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="51" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="2">
@@ -3186,318 +3182,345 @@
       <c r="N11" s="2">
         <v>1</v>
       </c>
-      <c r="O11" s="64">
+      <c r="O11" s="63">
         <v>100</v>
       </c>
       <c r="P11" s="20">
         <v>1</v>
       </c>
-      <c r="Q11" s="109" t="s">
+      <c r="Q11" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="118"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="80"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="79">
+        <v>2</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="79">
+        <v>3</v>
+      </c>
+      <c r="C15" s="111" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="100"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="110"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="100"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="110"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="R11" s="110"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="93"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="92">
-        <v>2</v>
-      </c>
-      <c r="C13" s="92" t="s">
+      <c r="H17" s="16"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="110"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="100"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="110"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="100"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="80"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="79">
+        <v>4</v>
+      </c>
+      <c r="C21" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="100"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="110"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="58" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="58" t="s">
+      <c r="H22" s="16"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="80"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="92">
-        <v>3</v>
-      </c>
-      <c r="C15" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="111"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="106"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="59" t="s">
+      <c r="H23" s="16"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="79">
+        <v>6</v>
+      </c>
+      <c r="C24" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="110"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="80"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="111"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="106"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="111"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="106"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="106"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="93"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="92">
-        <v>4</v>
-      </c>
-      <c r="C21" s="103" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="111"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="106"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="111"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="93"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="58" t="s">
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="79">
+        <v>7</v>
+      </c>
+      <c r="C27" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="111"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="92">
-        <v>6</v>
-      </c>
-      <c r="C24" s="103" t="s">
+      <c r="D27" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="59" t="s">
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="80"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="58" t="s">
         <v>95</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="111"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="106"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="93"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="58" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="92">
-        <v>7</v>
-      </c>
-      <c r="C27" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="93"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="59" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="32"/>
-      <c r="C39" s="65"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="64"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="32"/>
-      <c r="C40" s="65"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="64"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="32"/>
-      <c r="C41" s="65"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="64"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="32"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="H5:R5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q6:R6"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="Q15:R15"/>
@@ -3510,33 +3533,6 @@
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="H5:R5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3551,8 +3547,8 @@
   </sheetPr>
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A3" zoomScale="135" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3567,81 +3563,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B1" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="102" t="s">
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="102"/>
+      <c r="N4" s="78"/>
     </row>
     <row r="5" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="134"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="146"/>
       <c r="F5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>66</v>
       </c>
       <c r="I5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="123" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="124"/>
+      <c r="L5" s="142"/>
       <c r="M5" s="14" t="s">
         <v>27</v>
       </c>
@@ -3649,11 +3645,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="132" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -3663,7 +3659,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2">
         <v>100</v>
@@ -3677,57 +3673,57 @@
       <c r="J6" s="2">
         <v>30</v>
       </c>
-      <c r="K6" s="125">
+      <c r="K6" s="143">
         <v>5</v>
       </c>
-      <c r="L6" s="126" t="s">
+      <c r="L6" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="112" x14ac:dyDescent="0.2">
+      <c r="M6" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="142"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G7" s="9">
         <v>-15</v>
       </c>
-      <c r="H7" s="9">
-        <v>-15</v>
-      </c>
-      <c r="I7" s="9">
-        <v>-5</v>
-      </c>
-      <c r="J7" s="9">
-        <v>-30</v>
-      </c>
-      <c r="K7" s="99">
-        <v>-15</v>
-      </c>
-      <c r="L7" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="N7" s="60" t="s">
-        <v>113</v>
+      <c r="H7" s="2">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>30</v>
+      </c>
+      <c r="K7" s="143">
+        <v>5</v>
+      </c>
+      <c r="L7" s="144" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -3735,7 +3731,7 @@
         <f t="shared" ref="B8:B12" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="142"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="18" t="s">
         <v>49</v>
       </c>
@@ -3757,15 +3753,15 @@
       <c r="J8" s="2">
         <v>25</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="87">
         <v>2</v>
       </c>
-      <c r="L8" s="75"/>
+      <c r="L8" s="88"/>
       <c r="M8" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -3773,12 +3769,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="142"/>
+      <c r="C9" s="133"/>
       <c r="D9" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>39</v>
@@ -3795,15 +3791,15 @@
       <c r="J9" s="20">
         <v>10</v>
       </c>
-      <c r="K9" s="131">
+      <c r="K9" s="149">
         <v>100</v>
       </c>
-      <c r="L9" s="131"/>
-      <c r="M9" s="54" t="s">
-        <v>82</v>
+      <c r="L9" s="149"/>
+      <c r="M9" s="53" t="s">
+        <v>81</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="16" x14ac:dyDescent="0.2">
@@ -3811,37 +3807,37 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="142"/>
+      <c r="C10" s="133"/>
       <c r="D10" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="64">
+        <v>98</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="63">
         <v>50</v>
       </c>
       <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="63">
         <v>2</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="63">
         <v>3</v>
       </c>
-      <c r="K10" s="127">
+      <c r="K10" s="145">
         <v>2</v>
       </c>
-      <c r="L10" s="127"/>
-      <c r="M10" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="N10" s="62" t="s">
-        <v>112</v>
+      <c r="L10" s="145"/>
+      <c r="M10" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3849,7 +3845,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="142"/>
+      <c r="C11" s="133"/>
       <c r="D11" s="18" t="s">
         <v>29</v>
       </c>
@@ -3871,15 +3867,15 @@
       <c r="J11" s="20">
         <v>99</v>
       </c>
-      <c r="K11" s="131">
+      <c r="K11" s="149">
         <v>45</v>
       </c>
-      <c r="L11" s="131"/>
-      <c r="M11" s="54" t="s">
-        <v>82</v>
+      <c r="L11" s="149"/>
+      <c r="M11" s="53" t="s">
+        <v>81</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="48" x14ac:dyDescent="0.2">
@@ -3887,14 +3883,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="51" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="2">
@@ -3906,23 +3902,23 @@
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="63">
         <v>100</v>
       </c>
-      <c r="K12" s="132">
+      <c r="K12" s="150">
         <v>0</v>
       </c>
-      <c r="L12" s="132"/>
-      <c r="M12" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="N12" s="62" t="s">
-        <v>112</v>
+      <c r="L12" s="150"/>
+      <c r="M12" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" s="61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
-      <c r="C13" s="55"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="16"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -3930,8 +3926,8 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
     </row>
@@ -3962,137 +3958,137 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="144" t="s">
+      <c r="C17" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="25" t="s">
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="144" t="s">
+      <c r="H17" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="147"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="144" t="s">
+      <c r="I17" s="121"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="147"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="146"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="123"/>
     </row>
     <row r="18" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="112" t="s">
+      <c r="D18" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="112" t="s">
+      <c r="E18" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="140" t="s">
+      <c r="F18" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="152" t="s">
+      <c r="G18" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="148" t="s">
+      <c r="H18" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="149"/>
-      <c r="J18" s="112" t="s">
+      <c r="I18" s="136"/>
+      <c r="J18" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="112" t="s">
+      <c r="K18" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="L18" s="140" t="s">
+      <c r="L18" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="153" t="s">
+      <c r="M18" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="112" t="s">
+      <c r="N18" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="O18" s="112" t="s">
+      <c r="O18" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="P18" s="140" t="s">
+      <c r="P18" s="119" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="138"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="140"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
+      <c r="P19" s="119"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>11</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <v>7</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="25">
         <v>4</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="136" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="137"/>
+      <c r="I20" s="129"/>
       <c r="J20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="25">
         <v>0</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="26">
         <v>0</v>
       </c>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="28" t="s">
         <v>63</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="25">
         <v>0</v>
       </c>
-      <c r="P20" s="27">
+      <c r="P20" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4101,13 +4097,20 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B3:N3"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
@@ -4124,20 +4127,13 @@
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4152,15 +4148,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4304,6 +4291,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
   <ds:schemaRefs>
@@ -4314,14 +4310,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153A5999-B236-48B1-944C-C5EB94545735}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4337,4 +4325,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>